--- a/Aula01_BCF.xlsx
+++ b/Aula01_BCF.xlsx
@@ -66,7 +66,7 @@
     <t xml:space="preserve">Mexilhão(ng/g-lw)</t>
   </si>
   <si>
-    <t xml:space="preserve">Water(pg/L)</t>
+    <t xml:space="preserve">Água(pg/L)</t>
   </si>
   <si>
     <t xml:space="preserve">logKow</t>
@@ -388,7 +388,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Aula01_BCF.xlsx
+++ b/Aula01_BCF.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="996" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="BCF_Mexilhao" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="24">
   <si>
     <t xml:space="preserve">Mexilhões</t>
   </si>
@@ -58,9 +58,6 @@
   </si>
   <si>
     <t xml:space="preserve">Grupo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PCB</t>
   </si>
   <si>
     <t xml:space="preserve">Mexilhão(ng/g-lw)</t>
@@ -103,9 +100,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0.00"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -173,7 +169,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -182,18 +178,14 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -205,19 +197,19 @@
   </sheetPr>
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A2:E21 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="9.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="8.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="13.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="9.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="8.67"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.3826530612245"/>
+    <col collapsed="false" hidden="false" max="6" min="2" style="0" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="9.17857142857143"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="14.6530612244898"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="9.92857142857143"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="9.17857142857143"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -296,21 +288,14 @@
         <v>50.9</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:G1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.511805555555555" right="0.511805555555555" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -325,13 +310,13 @@
   </sheetPr>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A2:E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.67"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.17857142857143"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -365,14 +350,11 @@
         <v>64.22</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.511805555555555" right="0.511805555555555" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -387,17 +369,17 @@
   </sheetPr>
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="8.67"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.9234693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.8979591836735"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="9.17857142857143"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -405,21 +387,21 @@
         <v>11</v>
       </c>
       <c r="B1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>14</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>3</v>
@@ -428,32 +410,32 @@
         <v>0.199</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>5</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>2.35</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>15</v>
@@ -470,7 +452,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>17</v>
@@ -487,7 +469,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>28</v>
@@ -504,7 +486,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>71</v>
@@ -516,12 +498,12 @@
         <v>1.23</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>49</v>
@@ -530,15 +512,15 @@
         <v>0.361</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>47</v>
@@ -555,7 +537,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>66</v>
@@ -567,12 +549,12 @@
         <v>0.321</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>77</v>
@@ -581,15 +563,15 @@
         <v>0.529</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>100</v>
@@ -606,7 +588,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>119</v>
@@ -615,15 +597,15 @@
         <v>0.225</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>99</v>
@@ -640,7 +622,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>65</v>
@@ -652,29 +634,29 @@
         <v>4.88</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>126</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>154</v>
@@ -683,7 +665,7 @@
         <v>0.552</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E17" s="0" t="n">
         <v>7.82</v>
@@ -691,7 +673,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>153</v>
@@ -708,41 +690,41 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>138</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>183</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>1.12</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>209</v>
@@ -754,13 +736,13 @@
         <v>13.4</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.511805555555555" right="0.511805555555555" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
